--- a/maf_genomes_list.xlsx
+++ b/maf_genomes_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eklavya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eklavya/projects/code/BioDragao/africanum_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA84900D-CF63-7A46-AA2C-9506B1B4E1F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511C6CFA-981C-1143-BDFE-A744290C52FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{AF0B711D-CFCC-46BF-8CF3-EDE28DBB3305}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{AF0B711D-CFCC-46BF-8CF3-EDE28DBB3305}"/>
   </bookViews>
   <sheets>
     <sheet name="paired" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="single" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2987,10 +2986,10 @@
     <t>Abhi have downloaded and it is in another folder. We must rename all of them for the Sample_Accession name</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Duplicated genomes - mentioned twice</t>
   </si>
 </sst>
 </file>
@@ -3041,7 +3040,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3060,6 +3059,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3075,7 +3080,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -3087,6 +3092,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3405,8 +3412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85621DB3-8135-4E18-A5C8-F06E7BAEA16A}">
   <dimension ref="A1:T307"/>
   <sheetViews>
-    <sheetView topLeftCell="A282" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A266" sqref="A266:B267"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3615,7 +3622,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" s="3" customFormat="1">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="12" t="s">
         <v>561</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3967,7 +3974,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="12" t="s">
         <v>561</v>
       </c>
       <c r="B68" t="s">
@@ -5424,7 +5431,7 @@
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="11" t="s">
         <v>754</v>
       </c>
       <c r="B114" t="s">
@@ -6827,7 +6834,7 @@
       </c>
     </row>
     <row r="264" spans="1:20">
-      <c r="A264" t="s">
+      <c r="A264" s="11" t="s">
         <v>610</v>
       </c>
       <c r="B264" t="s">
@@ -6843,7 +6850,7 @@
       </c>
     </row>
     <row r="266" spans="1:20">
-      <c r="A266" t="s">
+      <c r="A266" s="11" t="s">
         <v>611</v>
       </c>
       <c r="B266" t="s">
@@ -6851,7 +6858,7 @@
       </c>
     </row>
     <row r="267" spans="1:20">
-      <c r="A267" t="s">
+      <c r="A267" s="11" t="s">
         <v>612</v>
       </c>
       <c r="B267" t="s">
@@ -7135,7 +7142,7 @@
       </c>
     </row>
     <row r="274" spans="1:16" s="4" customFormat="1">
-      <c r="A274" s="4" t="s">
+      <c r="A274" s="11" t="s">
         <v>754</v>
       </c>
       <c r="B274" s="4" t="s">
@@ -7971,7 +7978,7 @@
       </c>
     </row>
     <row r="293" spans="1:20" s="4" customFormat="1">
-      <c r="A293" s="4" t="s">
+      <c r="A293" s="11" t="s">
         <v>611</v>
       </c>
       <c r="B293" s="4" t="s">
@@ -8103,7 +8110,7 @@
       </c>
     </row>
     <row r="296" spans="1:20" s="4" customFormat="1">
-      <c r="A296" s="4" t="s">
+      <c r="A296" s="11" t="s">
         <v>612</v>
       </c>
       <c r="B296" s="4" t="s">
@@ -8191,7 +8198,7 @@
       </c>
     </row>
     <row r="298" spans="1:20" s="4" customFormat="1">
-      <c r="A298" s="4" t="s">
+      <c r="A298" s="11" t="s">
         <v>610</v>
       </c>
       <c r="B298" s="4" t="s">
@@ -8362,11 +8369,11 @@
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="6" t="s">
+      <c r="A307" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="B307" t="s">
         <v>985</v>
-      </c>
-      <c r="B307" t="s">
-        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -9241,7 +9248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD0721F-57A9-C54D-A3E5-9829E8E841D6}">
   <dimension ref="A1:B208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>

--- a/maf_genomes_list.xlsx
+++ b/maf_genomes_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eklavya/projects/code/BioDragao/africanum_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511C6CFA-981C-1143-BDFE-A744290C52FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866A5805-F74B-2647-8431-B4B105630182}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{AF0B711D-CFCC-46BF-8CF3-EDE28DBB3305}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="988">
   <si>
     <t>ERR702401</t>
   </si>
@@ -2977,12 +2977,6 @@
     <t>SAMEA2535035</t>
   </si>
   <si>
-    <t>Ok in the folder maf-genomes</t>
-  </si>
-  <si>
-    <t>we must download</t>
-  </si>
-  <si>
     <t>Abhi have downloaded and it is in another folder. We must rename all of them for the Sample_Accession name</t>
   </si>
   <si>
@@ -2990,6 +2984,15 @@
   </si>
   <si>
     <t xml:space="preserve">  Duplicated genomes - mentioned twice</t>
+  </si>
+  <si>
+    <t>Missing - abhi folder</t>
+  </si>
+  <si>
+    <t>we must download - ena</t>
+  </si>
+  <si>
+    <t>Ok in the folder maf-genomes - em</t>
   </si>
 </sst>
 </file>
@@ -3040,7 +3043,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3065,6 +3068,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3080,7 +3089,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -3094,6 +3103,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3410,10 +3421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85621DB3-8135-4E18-A5C8-F06E7BAEA16A}">
-  <dimension ref="A1:T307"/>
+  <dimension ref="A1:T308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A302" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3838,7 +3849,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="13" t="s">
         <v>593</v>
       </c>
       <c r="B51" t="s">
@@ -3862,7 +3873,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="13" t="s">
         <v>596</v>
       </c>
       <c r="B54" t="s">
@@ -8355,24 +8366,29 @@
     </row>
     <row r="304" spans="1:20">
       <c r="A304" s="8" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="7" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="6" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="12" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B307" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="14" t="s">
         <v>985</v>
       </c>
     </row>

--- a/maf_genomes_list.xlsx
+++ b/maf_genomes_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eklavya/projects/code/BioDragao/africanum_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866A5805-F74B-2647-8431-B4B105630182}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D070921-C99F-DA41-986D-4E9F1FC6F8D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{AF0B711D-CFCC-46BF-8CF3-EDE28DBB3305}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="990">
   <si>
     <t>ERR702401</t>
   </si>
@@ -2993,6 +2993,12 @@
   </si>
   <si>
     <t>Ok in the folder maf-genomes - em</t>
+  </si>
+  <si>
+    <t>ftp://ftp.sra.ebi.ac.uk/vol1/fastq/ERR120/005/ERR1203075/ERR1203075_1.fastq.gz;ftp://ftp.sra.ebi.ac.uk/vol1/fastq/ERR120/005/ERR1203075/ERR1203075_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.sra.ebi.ac.uk/vol1/fastq/ERR120/008/ERR1203078/ERR1203078_1.fastq.gz;ftp://ftp.sra.ebi.ac.uk/vol1/fastq/ERR120/008/ERR1203078/ERR1203078_2.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -3423,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85621DB3-8135-4E18-A5C8-F06E7BAEA16A}">
   <dimension ref="A1:T308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E307" sqref="E307"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3832,7 +3838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="3" customFormat="1">
+    <row r="49" spans="1:6" s="3" customFormat="1">
       <c r="A49" s="3" t="s">
         <v>591</v>
       </c>
@@ -3840,7 +3846,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:6">
       <c r="A50" s="10" t="s">
         <v>594</v>
       </c>
@@ -3848,15 +3854,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:6">
       <c r="A51" s="13" t="s">
         <v>593</v>
       </c>
       <c r="B51" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="F51" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="10" t="s">
         <v>597</v>
       </c>
@@ -3864,7 +3873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:6">
       <c r="A53" s="10" t="s">
         <v>598</v>
       </c>
@@ -3872,15 +3881,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:6">
       <c r="A54" s="13" t="s">
         <v>596</v>
       </c>
       <c r="B54" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="F54" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="9" t="s">
         <v>536</v>
       </c>
@@ -3888,7 +3900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:6">
       <c r="A56" s="9" t="s">
         <v>537</v>
       </c>
@@ -3896,7 +3908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:6">
       <c r="A57" s="9" t="s">
         <v>539</v>
       </c>
@@ -3904,7 +3916,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:6">
       <c r="A58" s="9" t="s">
         <v>540</v>
       </c>
@@ -3912,7 +3924,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:6">
       <c r="A59" s="9" t="s">
         <v>541</v>
       </c>
@@ -3920,7 +3932,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:6">
       <c r="A60" s="9" t="s">
         <v>542</v>
       </c>
@@ -3928,7 +3940,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:6">
       <c r="A61" s="9" t="s">
         <v>547</v>
       </c>
@@ -3936,7 +3948,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:6">
       <c r="A62" s="9" t="s">
         <v>548</v>
       </c>
@@ -3944,7 +3956,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:6">
       <c r="A63" s="9" t="s">
         <v>549</v>
       </c>
@@ -3952,7 +3964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:6">
       <c r="A64" s="9" t="s">
         <v>550</v>
       </c>
@@ -8396,8 +8408,12 @@
   <sortState ref="A2:T301">
     <sortCondition ref="B2:B301"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F51" r:id="rId1" xr:uid="{97903408-E3C7-494C-B899-3B1D7A6EEE6E}"/>
+    <hyperlink ref="F54" r:id="rId2" xr:uid="{0E66A4EF-8195-7647-93FA-359F5FC1CE61}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/maf_genomes_list.xlsx
+++ b/maf_genomes_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eklavya/projects/code/BioDragao/africanum_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D070921-C99F-DA41-986D-4E9F1FC6F8D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6925FE-9395-9444-AFE2-499B55283B2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{AF0B711D-CFCC-46BF-8CF3-EDE28DBB3305}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{AF0B711D-CFCC-46BF-8CF3-EDE28DBB3305}"/>
   </bookViews>
   <sheets>
     <sheet name="paired" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="990">
   <si>
     <t>ERR702401</t>
   </si>
@@ -3429,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85621DB3-8135-4E18-A5C8-F06E7BAEA16A}">
   <dimension ref="A1:T308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9278,13 +9278,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD0721F-57A9-C54D-A3E5-9829E8E841D6}">
-  <dimension ref="A1:B208"/>
+  <dimension ref="A1:B203"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D38" sqref="D37:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
@@ -9616,1338 +9620,1298 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="9" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="9" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="9" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="9" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="9" t="s">
-        <v>556</v>
+        <v>599</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="9" t="s">
-        <v>602</v>
+      <c r="A52" s="10" t="s">
+        <v>603</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="10" t="s">
-        <v>607</v>
+        <v>753</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="10" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="10" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="10" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="10" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="10" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="10" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="10" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="10" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="10" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="10" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="10" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="10" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="10" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="10" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="10" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="10" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="10" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="10" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="10" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="10" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="10" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="10" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="10" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="10" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="10" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="10" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="10" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="10" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B87" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="10" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B88" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="10" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="10" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="10" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="10" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="10" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="10" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="10" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="10" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="10" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B98" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="10" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="10" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="10" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="10" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B103" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="10" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B104" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="10" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="10" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="10" t="s">
-        <v>704</v>
+      <c r="A108" s="6" t="s">
+        <v>973</v>
       </c>
       <c r="B108" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="10" t="s">
-        <v>702</v>
+      <c r="A109" s="6" t="s">
+        <v>975</v>
       </c>
       <c r="B109" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="6" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="B110" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="6" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="6" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="6" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B113" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B114" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="6" t="s">
-        <v>976</v>
+      <c r="A115" s="9" t="s">
+        <v>981</v>
       </c>
       <c r="B115" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="6" t="s">
-        <v>980</v>
-      </c>
-      <c r="B116" t="s">
-        <v>67</v>
+      <c r="A116" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="9" t="s">
-        <v>981</v>
+      <c r="A117" s="10" t="s">
+        <v>700</v>
       </c>
       <c r="B117" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>1</v>
+        <v>670</v>
+      </c>
+      <c r="B118" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="10" t="s">
-        <v>700</v>
+        <v>671</v>
       </c>
       <c r="B119" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="10" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B120" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="10" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B121" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="10" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B122" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="10" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B123" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="10" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B124" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="10" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="10" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B126" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="10" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B127" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="10" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B128" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="10" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B129" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="10" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B130" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="10" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B131" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="10" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B132" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="10" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B133" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="10" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B134" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="10" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B135" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="10" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B136" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="10" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B137" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="10" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B138" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="10" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B139" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="10" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B140" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="10" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B141" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="10" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B142" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="10" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B143" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="10" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B144" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="10" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B145" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="10" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B146" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="10" t="s">
-        <v>698</v>
+        <v>644</v>
       </c>
       <c r="B147" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="10" t="s">
-        <v>699</v>
+        <v>645</v>
       </c>
       <c r="B148" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="10" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B149" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="10" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B150" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="10" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B151" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="10" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B152" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="10" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B153" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B154" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="10" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B155" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="10" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B156" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="10" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B157" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="10" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B158" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="10" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B159" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B160" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="10" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B161" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="10" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B162" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="10" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B163" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="10" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B164" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="10" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B165" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="10" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B166" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="10" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B167" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="10" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B168" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="10" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B169" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="10" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B170" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="10" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B171" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="10" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B172" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="10" t="s">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="B173" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="10" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
       <c r="B174" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="10" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B175" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="10" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B176" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="10" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B177" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="10" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B178" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="10" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B179" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="10" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B180" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="10" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B181" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="10" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B182" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="10" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B183" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="10" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B184" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="10" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B185" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="10" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B186" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="10" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B187" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="10" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B188" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="10" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="10" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B190" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="10" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B191" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="10" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B192" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B193" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B194" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="10" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B195" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="10" t="s">
-        <v>642</v>
+        <v>613</v>
       </c>
       <c r="B196" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="10" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
       <c r="B197" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="10" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B198" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="10" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B199" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="10" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B200" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="10" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B201" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="10" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B202" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="10" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B203" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="B204" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="B205" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
-        <v>610</v>
-      </c>
-      <c r="B206" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
-        <v>611</v>
-      </c>
-      <c r="B207" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
-        <v>612</v>
-      </c>
-      <c r="B208" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
